--- a/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 07 - Colisiones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergioavendano/Desktop/Universidad/Estructuras/-LabCollision-S07-G08/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5A6E5986-5D76-40E6-8BB6-4E7550720C79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDED684-8C5C-6A44-AAC1-2036EDF3ED69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2127" yWindow="7073" windowWidth="4267" windowHeight="2354" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
     <sheet name="Graf Mem Vs Tiempo" sheetId="13" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Ref66842973" localSheetId="0">'Datos Lab7'!$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <r>
       <t>Factor de Carga</t>
@@ -66,12 +69,15 @@
   <si>
     <t>Consumo de Datos [kB]</t>
   </si>
+  <si>
+    <t>Factor de Carga (PROBING)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +102,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,11 +151,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -129,6 +187,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -408,7 +484,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -481,7 +557,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -568,7 +644,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -694,7 +770,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -835,7 +911,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -873,7 +949,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -957,7 +1033,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -995,7 +1071,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1037,7 +1113,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1074,7 +1150,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1702,7 +1778,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1998,27 +2074,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.64453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.05859375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.8203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2028,8 +2106,13 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
@@ -2039,8 +2122,17 @@
       <c r="C3" s="2">
         <v>45</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
@@ -2050,8 +2142,17 @@
       <c r="C4" s="2">
         <v>55</v>
       </c>
+      <c r="F4" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>293061.09000000003</v>
+      </c>
+      <c r="H4" s="6">
+        <v>73003.464999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.8</v>
       </c>
@@ -2061,15 +2162,43 @@
       <c r="C5" s="2">
         <v>75</v>
       </c>
+      <c r="F5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>290939.93</v>
+      </c>
+      <c r="H5" s="7">
+        <v>95474.769</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="8">
+        <v>289633.18400000001</v>
+      </c>
+      <c r="H6" s="8">
+        <v>120386.02800000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
+      <c r="F8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2079,8 +2208,17 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -2090,8 +2228,17 @@
       <c r="C10" s="2">
         <v>90</v>
       </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>327242.99</v>
+      </c>
+      <c r="H10" s="6">
+        <v>80118.804000000004</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -2101,8 +2248,17 @@
       <c r="C11" s="2">
         <v>100</v>
       </c>
+      <c r="F11" s="7">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7">
+        <v>326668.46299999999</v>
+      </c>
+      <c r="H11" s="7">
+        <v>90428.956000000006</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -2112,12 +2268,23 @@
       <c r="C12" s="2">
         <v>110</v>
       </c>
+      <c r="F12" s="8">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8">
+        <v>326434.674</v>
+      </c>
+      <c r="H12" s="8">
+        <v>104217.70299999999</v>
+      </c>
     </row>
-    <row r="21" ht="14.7" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="21" ht="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -2128,6 +2295,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2338,36 +2520,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2390,9 +2546,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergioavendano/Desktop/Universidad/Estructuras/-LabCollision-S07-G08/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDED684-8C5C-6A44-AAC1-2036EDF3ED69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BB71CC-1BA2-DE47-A592-41C0A3BE81F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="2660" windowWidth="28800" windowHeight="15340" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
@@ -482,6 +482,2130 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Probing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> (factor de carga vs. Consumo de datos)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-AD46-0A4B-9342-76DCC0537445}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$F$4:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$G$4:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>293061.09000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290939.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>289633.18400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD46-0A4B-9342-76DCC0537445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="142699216"/>
+        <c:axId val="142642832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="142699216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Factor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> de carga</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="142642832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="142642832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Consumo de datos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (KB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="142699216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Probing (factor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> de carga vs. tiempo )</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$F$4:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$H$4:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>73003.464999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95474.769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120386.02800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7648-E040-AACE-BB889EBD9D42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="150362288"/>
+        <c:axId val="150520848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="150362288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Factor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> de carga</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="150520848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="150520848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-US" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-US" sz="1200" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-US" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="150362288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Chaining (factor de carga vs. Consumo de datos)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$F$10:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$G$10:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>327242.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>326668.46299999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>326434.674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E606-CA4D-BE65-5873AA779007}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="144645136"/>
+        <c:axId val="121099024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="144645136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Factor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> de carga</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121099024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="121099024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" sz="1200" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Consumo de datos (KB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-US" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144645136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Chainig (factor de carga vs. tiempo )</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$F$10:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$H$10:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80118.804000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90428.956000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104217.70299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D77A-D64C-A678-DAB4CAE10EC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="177679616"/>
+        <c:axId val="176342784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="177679616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Factor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> de carga</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176342784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="176342784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-US" sz="1200" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tiempo (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-US" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177679616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -1157,6 +3281,166 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -1709,6 +3993,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA07E00A-1DDB-47A3-B681-B59870FF7EA9}">
   <sheetPr/>
@@ -1721,6 +6069,155 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B35E4F8-4048-C743-9EFF-30B30EC128E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494A8E57-DA18-764B-8EB5-DBE499EF0BA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Gráfico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32003CE-7DDC-2242-85A6-E20CBE7CCE10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Gráfico 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80B6A4AB-8D3C-6146-B7CD-F85E0C3607DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -2076,8 +6573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2287,9 +6784,10 @@
     <mergeCell ref="F8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
